--- a/application/results/model/Base Model.xlsx
+++ b/application/results/model/Base Model.xlsx
@@ -466,7 +466,7 @@
         <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008637428283691406</v>
+        <v>0.02232909202575684</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002345085144042969</v>
+        <v>0.009814262390136719</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003969430923461914</v>
+        <v>0.02677774429321289</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004154443740844727</v>
+        <v>0.02868247032165527</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004338741302490234</v>
+        <v>0.01911759376525879</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002545595169067383</v>
+        <v>0.005246400833129883</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004281520843505859</v>
+        <v>0.01266169548034668</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>63</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004838228225708008</v>
+        <v>0.01781940460205078</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004485368728637695</v>
+        <v>0.03506755828857422</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001710414886474609</v>
+        <v>0.004360198974609375</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>63</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004545927047729492</v>
+        <v>0.02754998207092285</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00470423698425293</v>
+        <v>0.03315114974975586</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>63</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004942417144775391</v>
+        <v>0.02211427688598633</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>63</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001746654510498047</v>
+        <v>0.004361867904663086</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004175662994384766</v>
+        <v>0.01532745361328125</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005144119262695312</v>
+        <v>0.01326465606689453</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006474494934082031</v>
+        <v>0.02036309242248535</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001446723937988281</v>
+        <v>0.002073764801025391</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>63</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005232334136962891</v>
+        <v>0.01599812507629395</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>63</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006906270980834961</v>
+        <v>0.0201265811920166</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>63</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005936384201049805</v>
+        <v>0.01826977729797363</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>63</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00159907341003418</v>
+        <v>0.002233266830444336</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>63</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005131244659423828</v>
+        <v>0.01220989227294922</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>63</v>
       </c>
       <c r="D25" t="n">
-        <v>0.006216526031494141</v>
+        <v>0.0204160213470459</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006182670593261719</v>
+        <v>0.02318120002746582</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004648685455322266</v>
+        <v>0.01300525665283203</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005831480026245117</v>
+        <v>0.02259230613708496</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006073713302612305</v>
+        <v>0.02260184288024902</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005879640579223633</v>
+        <v>0.01626181602478027</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004538059234619141</v>
+        <v>0.01213264465332031</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005522727966308594</v>
+        <v>0.01945304870605469</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>0.006348133087158203</v>
+        <v>0.02056026458740234</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006063699722290039</v>
+        <v>0.03372335433959961</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005877017974853516</v>
+        <v>0.02201986312866211</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006023645401000977</v>
+        <v>0.0207521915435791</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005910158157348633</v>
+        <v>0.02088522911071777</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005609750747680664</v>
+        <v>0.01770234107971191</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005180120468139648</v>
+        <v>0.01668572425842285</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005317211151123047</v>
+        <v>0.01633548736572266</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00529789924621582</v>
+        <v>0.01574611663818359</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006780862808227539</v>
+        <v>0.02898812294006348</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005737066268920898</v>
+        <v>0.02014493942260742</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>0.006624937057495117</v>
+        <v>0.03040623664855957</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007781505584716797</v>
+        <v>0.02853155136108398</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006595849990844727</v>
+        <v>0.02004718780517578</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005382299423217773</v>
+        <v>0.01625585556030273</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00583648681640625</v>
+        <v>0.02078628540039062</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005852460861206055</v>
+        <v>0.0201261043548584</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>94</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005856990814208984</v>
+        <v>0.02506899833679199</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00139164924621582</v>
+        <v>0.002706527709960938</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>94</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004235029220581055</v>
+        <v>0.0256202220916748</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>94</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005784273147583008</v>
+        <v>0.0263969898223877</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>0.005631923675537109</v>
+        <v>0.0268714427947998</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001310825347900391</v>
+        <v>0.004156827926635742</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>94</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004124879837036133</v>
+        <v>0.01657605171203613</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>94</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006134033203125</v>
+        <v>0.02139878273010254</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>94</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007774114608764648</v>
+        <v>0.03793668746948242</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>94</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001676797866821289</v>
+        <v>0.005802392959594727</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>94</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.02618813514709473</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>94</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007122039794921875</v>
+        <v>0.03075742721557617</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>94</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006205081939697266</v>
+        <v>0.02080583572387695</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>94</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001427173614501953</v>
+        <v>0.00315546989440918</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>94</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003674745559692383</v>
+        <v>0.01363706588745117</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005823612213134766</v>
+        <v>0.03043341636657715</v>
       </c>
     </row>
     <row r="66">
@@ -1362,7 +1362,7 @@
         <v>94</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01028704643249512</v>
+        <v>0.05451202392578125</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>94</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004061222076416016</v>
+        <v>0.008926630020141602</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +1390,7 @@
         <v>94</v>
       </c>
       <c r="D68" t="n">
-        <v>0.007294654846191406</v>
+        <v>0.05180978775024414</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>94</v>
       </c>
       <c r="D69" t="n">
-        <v>0.009547233581542969</v>
+        <v>0.05002045631408691</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>94</v>
       </c>
       <c r="D70" t="n">
-        <v>0.009489059448242188</v>
+        <v>0.01961851119995117</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002981901168823242</v>
+        <v>0.007774591445922852</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1446,7 @@
         <v>94</v>
       </c>
       <c r="D72" t="n">
-        <v>0.007363557815551758</v>
+        <v>0.01896095275878906</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>94</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01024031639099121</v>
+        <v>0.02269840240478516</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>150</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007849931716918945</v>
+        <v>0.03354263305664062</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>150</v>
       </c>
       <c r="D75" t="n">
-        <v>0.005242347717285156</v>
+        <v>0.0160524845123291</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>150</v>
       </c>
       <c r="D76" t="n">
-        <v>0.007997512817382812</v>
+        <v>0.02809667587280273</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>150</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008345365524291992</v>
+        <v>0.02813339233398438</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>150</v>
       </c>
       <c r="D78" t="n">
-        <v>0.008138656616210938</v>
+        <v>0.03567790985107422</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>150</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005483388900756836</v>
+        <v>0.01662564277648926</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>150</v>
       </c>
       <c r="D80" t="n">
-        <v>0.008162498474121094</v>
+        <v>0.02535462379455566</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="D81" t="n">
-        <v>0.007886886596679688</v>
+        <v>0.02760052680969238</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>150</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007673025131225586</v>
+        <v>0.0286095142364502</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>150</v>
       </c>
       <c r="D83" t="n">
-        <v>0.003841876983642578</v>
+        <v>0.01290321350097656</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>150</v>
       </c>
       <c r="D84" t="n">
-        <v>0.008648157119750977</v>
+        <v>0.0508122444152832</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>150</v>
       </c>
       <c r="D85" t="n">
-        <v>0.008693695068359375</v>
+        <v>0.03279733657836914</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="D86" t="n">
-        <v>0.008355379104614258</v>
+        <v>0.02351617813110352</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>150</v>
       </c>
       <c r="D87" t="n">
-        <v>0.003993034362792969</v>
+        <v>0.0117640495300293</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>150</v>
       </c>
       <c r="D88" t="n">
-        <v>0.007985591888427734</v>
+        <v>0.02313733100891113</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>150</v>
       </c>
       <c r="D89" t="n">
-        <v>0.009550094604492188</v>
+        <v>0.02357101440429688</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>150</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01198434829711914</v>
+        <v>0.04651045799255371</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>150</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006066083908081055</v>
+        <v>0.02063417434692383</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>150</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01173830032348633</v>
+        <v>0.05295515060424805</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>150</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01282072067260742</v>
+        <v>0.0767514705657959</v>
       </c>
     </row>
     <row r="94">
@@ -1754,7 +1754,7 @@
         <v>150</v>
       </c>
       <c r="D94" t="n">
-        <v>0.009479045867919922</v>
+        <v>0.02881622314453125</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>150</v>
       </c>
       <c r="D95" t="n">
-        <v>0.005378961563110352</v>
+        <v>0.01583123207092285</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>150</v>
       </c>
       <c r="D96" t="n">
-        <v>0.009088039398193359</v>
+        <v>0.03788232803344727</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>150</v>
       </c>
       <c r="D97" t="n">
-        <v>0.009176731109619141</v>
+        <v>0.02736234664916992</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>125</v>
       </c>
       <c r="D98" t="n">
-        <v>0.008219480514526367</v>
+        <v>0.02258205413818359</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>125</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002526760101318359</v>
+        <v>0.004294395446777344</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.007770538330078125</v>
+        <v>0.02217292785644531</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>125</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008087396621704102</v>
+        <v>0.02312064170837402</v>
       </c>
     </row>
     <row r="102">
@@ -1866,7 +1866,7 @@
         <v>125</v>
       </c>
       <c r="D102" t="n">
-        <v>0.007818937301635742</v>
+        <v>0.02718424797058105</v>
       </c>
     </row>
     <row r="103">
@@ -1880,7 +1880,7 @@
         <v>125</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002790451049804688</v>
+        <v>0.004817724227905273</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.007984638214111328</v>
+        <v>0.04635143280029297</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>125</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01192665100097656</v>
+        <v>0.03086400032043457</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>125</v>
       </c>
       <c r="D106" t="n">
-        <v>0.009808063507080078</v>
+        <v>0.02868127822875977</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>125</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00254058837890625</v>
+        <v>0.00288844108581543</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>125</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008292675018310547</v>
+        <v>0.02455282211303711</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>125</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01140809059143066</v>
+        <v>0.02876424789428711</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>125</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008545398712158203</v>
+        <v>0.03483033180236816</v>
       </c>
     </row>
     <row r="111">
@@ -1992,7 +1992,7 @@
         <v>125</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00189208984375</v>
+        <v>0.002718210220336914</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>125</v>
       </c>
       <c r="D112" t="n">
-        <v>0.007278680801391602</v>
+        <v>0.02174162864685059</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>125</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00820612907409668</v>
+        <v>0.05105495452880859</v>
       </c>
     </row>
     <row r="114">
@@ -2034,7 +2034,7 @@
         <v>125</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01076030731201172</v>
+        <v>0.03654575347900391</v>
       </c>
     </row>
     <row r="115">
@@ -2048,7 +2048,7 @@
         <v>125</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004937887191772461</v>
+        <v>0.01410198211669922</v>
       </c>
     </row>
     <row r="116">
@@ -2062,7 +2062,7 @@
         <v>125</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01041793823242188</v>
+        <v>0.03637933731079102</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>125</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01067757606506348</v>
+        <v>0.03631019592285156</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>125</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01032686233520508</v>
+        <v>0.02290821075439453</v>
       </c>
     </row>
     <row r="119">
@@ -2104,7 +2104,7 @@
         <v>125</v>
       </c>
       <c r="D119" t="n">
-        <v>0.003660202026367188</v>
+        <v>0.008582353591918945</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>125</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01002049446105957</v>
+        <v>0.02489519119262695</v>
       </c>
     </row>
     <row r="121">
@@ -2132,7 +2132,7 @@
         <v>125</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01091122627258301</v>
+        <v>0.02837061882019043</v>
       </c>
     </row>
     <row r="122">
@@ -2146,7 +2146,7 @@
         <v>200</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01090264320373535</v>
+        <v>0.04062128067016602</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2160,7 @@
         <v>200</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005891799926757812</v>
+        <v>0.01819610595703125</v>
       </c>
     </row>
     <row r="124">
@@ -2174,7 +2174,7 @@
         <v>200</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01060080528259277</v>
+        <v>0.05041098594665527</v>
       </c>
     </row>
     <row r="125">
@@ -2188,7 +2188,7 @@
         <v>200</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01104354858398438</v>
+        <v>0.04062294960021973</v>
       </c>
     </row>
     <row r="126">
@@ -2202,7 +2202,7 @@
         <v>200</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01084065437316895</v>
+        <v>0.03114724159240723</v>
       </c>
     </row>
     <row r="127">
@@ -2216,7 +2216,7 @@
         <v>200</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006014823913574219</v>
+        <v>0.01756429672241211</v>
       </c>
     </row>
     <row r="128">
@@ -2230,7 +2230,7 @@
         <v>200</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01069402694702148</v>
+        <v>0.03089761734008789</v>
       </c>
     </row>
     <row r="129">
@@ -2244,7 +2244,7 @@
         <v>200</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01032137870788574</v>
+        <v>0.03051948547363281</v>
       </c>
     </row>
     <row r="130">
@@ -2258,7 +2258,7 @@
         <v>200</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01059460639953613</v>
+        <v>0.05873656272888184</v>
       </c>
     </row>
     <row r="131">
@@ -2272,7 +2272,7 @@
         <v>200</v>
       </c>
       <c r="D131" t="n">
-        <v>0.002236604690551758</v>
+        <v>0.003869533538818359</v>
       </c>
     </row>
     <row r="132">
@@ -2286,7 +2286,7 @@
         <v>200</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01034283638000488</v>
+        <v>0.05036807060241699</v>
       </c>
     </row>
     <row r="133">
@@ -2300,7 +2300,7 @@
         <v>200</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01069784164428711</v>
+        <v>0.07496213912963867</v>
       </c>
     </row>
     <row r="134">
@@ -2314,7 +2314,7 @@
         <v>200</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01114511489868164</v>
+        <v>0.03234028816223145</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2328,7 @@
         <v>200</v>
       </c>
       <c r="D135" t="n">
-        <v>0.002418994903564453</v>
+        <v>0.003452301025390625</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2342,7 @@
         <v>200</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01173162460327148</v>
+        <v>0.03171873092651367</v>
       </c>
     </row>
     <row r="137">
@@ -2356,7 +2356,7 @@
         <v>200</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01063680648803711</v>
+        <v>0.03169798851013184</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>200</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01483678817749023</v>
+        <v>0.04661750793457031</v>
       </c>
     </row>
     <row r="139">
@@ -2384,7 +2384,7 @@
         <v>200</v>
       </c>
       <c r="D139" t="n">
-        <v>0.006456136703491211</v>
+        <v>0.0194094181060791</v>
       </c>
     </row>
     <row r="140">
@@ -2398,7 +2398,7 @@
         <v>200</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01280713081359863</v>
+        <v>0.04428386688232422</v>
       </c>
     </row>
     <row r="141">
@@ -2412,7 +2412,7 @@
         <v>200</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0149376392364502</v>
+        <v>0.04685640335083008</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>200</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01079154014587402</v>
+        <v>0.03636956214904785</v>
       </c>
     </row>
     <row r="143">
@@ -2440,7 +2440,7 @@
         <v>200</v>
       </c>
       <c r="D143" t="n">
-        <v>0.006394386291503906</v>
+        <v>0.02361702919006348</v>
       </c>
     </row>
     <row r="144">
@@ -2454,7 +2454,7 @@
         <v>200</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01100301742553711</v>
+        <v>0.05135154724121094</v>
       </c>
     </row>
     <row r="145">
@@ -2468,7 +2468,7 @@
         <v>200</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01142311096191406</v>
+        <v>0.03585672378540039</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +2482,7 @@
         <v>625</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03603601455688477</v>
+        <v>0.1046328544616699</v>
       </c>
     </row>
     <row r="147">
@@ -2496,7 +2496,7 @@
         <v>625</v>
       </c>
       <c r="D147" t="n">
-        <v>0.03667616844177246</v>
+        <v>0.1076679229736328</v>
       </c>
     </row>
     <row r="148">
@@ -2510,7 +2510,7 @@
         <v>625</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008617401123046875</v>
+        <v>0.01397013664245605</v>
       </c>
     </row>
     <row r="149">
@@ -2524,7 +2524,7 @@
         <v>625</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03484821319580078</v>
+        <v>0.08895182609558105</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>625</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03422164916992188</v>
+        <v>0.1008446216583252</v>
       </c>
     </row>
     <row r="151">
@@ -2552,7 +2552,7 @@
         <v>625</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008345603942871094</v>
+        <v>0.01770615577697754</v>
       </c>
     </row>
     <row r="152">
@@ -2566,7 +2566,7 @@
         <v>625</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03593730926513672</v>
+        <v>0.3003983497619629</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>625</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0375058650970459</v>
+        <v>0.1301441192626953</v>
       </c>
     </row>
     <row r="154">
@@ -2594,7 +2594,7 @@
         <v>625</v>
       </c>
       <c r="D154" t="n">
-        <v>0.008959293365478516</v>
+        <v>0.01404380798339844</v>
       </c>
     </row>
     <row r="155">
@@ -2608,7 +2608,7 @@
         <v>625</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03683686256408691</v>
+        <v>0.08948326110839844</v>
       </c>
     </row>
     <row r="156">
@@ -2622,7 +2622,7 @@
         <v>625</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03634500503540039</v>
+        <v>0.09137916564941406</v>
       </c>
     </row>
     <row r="157">
@@ -2636,7 +2636,7 @@
         <v>625</v>
       </c>
       <c r="D157" t="n">
-        <v>0.008521318435668945</v>
+        <v>0.01885819435119629</v>
       </c>
     </row>
     <row r="158">
@@ -2650,7 +2650,7 @@
         <v>625</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1458384990692139</v>
+        <v>0.08539223670959473</v>
       </c>
     </row>
     <row r="159">
@@ -2664,7 +2664,7 @@
         <v>625</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03362822532653809</v>
+        <v>0.08680319786071777</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>625</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009033679962158203</v>
+        <v>0.01599550247192383</v>
       </c>
     </row>
     <row r="161">
@@ -2692,7 +2692,7 @@
         <v>625</v>
       </c>
       <c r="D161" t="n">
-        <v>0.03424334526062012</v>
+        <v>0.1331815719604492</v>
       </c>
     </row>
     <row r="162">
@@ -2706,7 +2706,7 @@
         <v>625</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03354549407958984</v>
+        <v>0.1306252479553223</v>
       </c>
     </row>
     <row r="163">
@@ -2720,7 +2720,7 @@
         <v>625</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009072780609130859</v>
+        <v>0.02268362045288086</v>
       </c>
     </row>
     <row r="164">
@@ -2734,7 +2734,7 @@
         <v>625</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03660464286804199</v>
+        <v>0.08947587013244629</v>
       </c>
     </row>
     <row r="165">
@@ -2748,7 +2748,7 @@
         <v>625</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03417778015136719</v>
+        <v>0.08683538436889648</v>
       </c>
     </row>
     <row r="166">
@@ -2762,7 +2762,7 @@
         <v>625</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009134054183959961</v>
+        <v>0.01589488983154297</v>
       </c>
     </row>
     <row r="167">
@@ -2776,7 +2776,7 @@
         <v>625</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03421688079833984</v>
+        <v>0.1617934703826904</v>
       </c>
     </row>
     <row r="168">
@@ -2790,7 +2790,7 @@
         <v>625</v>
       </c>
       <c r="D168" t="n">
-        <v>0.03341388702392578</v>
+        <v>0.1561300754547119</v>
       </c>
     </row>
     <row r="169">
@@ -2804,7 +2804,7 @@
         <v>625</v>
       </c>
       <c r="D169" t="n">
-        <v>0.008950710296630859</v>
+        <v>0.01764059066772461</v>
       </c>
     </row>
     <row r="170">
@@ -2818,7 +2818,7 @@
         <v>625</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03510046005249023</v>
+        <v>0.1029775142669678</v>
       </c>
     </row>
     <row r="171">
@@ -2832,7 +2832,7 @@
         <v>625</v>
       </c>
       <c r="D171" t="n">
-        <v>0.03472256660461426</v>
+        <v>0.1042623519897461</v>
       </c>
     </row>
     <row r="172">
@@ -2846,7 +2846,7 @@
         <v>625</v>
       </c>
       <c r="D172" t="n">
-        <v>0.01400613784790039</v>
+        <v>0.03512406349182129</v>
       </c>
     </row>
     <row r="173">
@@ -2860,7 +2860,7 @@
         <v>625</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03875970840454102</v>
+        <v>0.1513659954071045</v>
       </c>
     </row>
     <row r="174">
@@ -2874,7 +2874,7 @@
         <v>625</v>
       </c>
       <c r="D174" t="n">
-        <v>0.03796529769897461</v>
+        <v>0.1536941528320312</v>
       </c>
     </row>
     <row r="175">
@@ -2888,7 +2888,7 @@
         <v>625</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01386809349060059</v>
+        <v>0.0604701042175293</v>
       </c>
     </row>
     <row r="176">
@@ -2902,7 +2902,7 @@
         <v>625</v>
       </c>
       <c r="D176" t="n">
-        <v>0.03537416458129883</v>
+        <v>0.117438793182373</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>625</v>
       </c>
       <c r="D177" t="n">
-        <v>0.03489351272583008</v>
+        <v>0.1204400062561035</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>625</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01364445686340332</v>
+        <v>0.03439831733703613</v>
       </c>
     </row>
     <row r="179">
@@ -2944,7 +2944,7 @@
         <v>625</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03658127784729004</v>
+        <v>0.1379108428955078</v>
       </c>
     </row>
     <row r="180">
@@ -2958,7 +2958,7 @@
         <v>625</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03697943687438965</v>
+        <v>0.1309547424316406</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>625</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01374626159667969</v>
+        <v>0.0536799430847168</v>
       </c>
     </row>
     <row r="182">
@@ -2986,7 +2986,7 @@
         <v>625</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03747010231018066</v>
+        <v>0.1114811897277832</v>
       </c>
     </row>
     <row r="183">
@@ -3000,7 +3000,7 @@
         <v>625</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0404818058013916</v>
+        <v>0.1432948112487793</v>
       </c>
     </row>
     <row r="184">
@@ -3014,7 +3014,7 @@
         <v>625</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00860595703125</v>
+        <v>0.01397252082824707</v>
       </c>
     </row>
     <row r="185">
@@ -3028,7 +3028,7 @@
         <v>625</v>
       </c>
       <c r="D185" t="n">
-        <v>0.03797268867492676</v>
+        <v>0.1226801872253418</v>
       </c>
     </row>
     <row r="186">
@@ -3042,7 +3042,7 @@
         <v>625</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03709769248962402</v>
+        <v>0.12074875831604</v>
       </c>
     </row>
     <row r="187">
@@ -3056,7 +3056,7 @@
         <v>625</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008125066757202148</v>
+        <v>0.01947307586669922</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>625</v>
       </c>
       <c r="D188" t="n">
-        <v>0.03713703155517578</v>
+        <v>0.1713018417358398</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>625</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03721022605895996</v>
+        <v>0.1758990287780762</v>
       </c>
     </row>
     <row r="190">
@@ -3098,7 +3098,7 @@
         <v>625</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008012294769287109</v>
+        <v>0.1770188808441162</v>
       </c>
     </row>
     <row r="191">
@@ -3112,7 +3112,7 @@
         <v>625</v>
       </c>
       <c r="D191" t="n">
-        <v>0.03720736503601074</v>
+        <v>0.160247802734375</v>
       </c>
     </row>
     <row r="192">
@@ -3126,7 +3126,7 @@
         <v>625</v>
       </c>
       <c r="D192" t="n">
-        <v>0.03734469413757324</v>
+        <v>0.1987228393554688</v>
       </c>
     </row>
     <row r="193">
@@ -3140,7 +3140,7 @@
         <v>625</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00818324089050293</v>
+        <v>0.03449606895446777</v>
       </c>
     </row>
     <row r="194">
@@ -3154,7 +3154,7 @@
         <v>625</v>
       </c>
       <c r="D194" t="n">
-        <v>0.04195785522460938</v>
+        <v>0.1538074016571045</v>
       </c>
     </row>
     <row r="195">
@@ -3168,7 +3168,7 @@
         <v>625</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0384829044342041</v>
+        <v>0.1224186420440674</v>
       </c>
     </row>
     <row r="196">
@@ -3182,7 +3182,7 @@
         <v>625</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01033592224121094</v>
+        <v>0.02276802062988281</v>
       </c>
     </row>
     <row r="197">
@@ -3196,7 +3196,7 @@
         <v>625</v>
       </c>
       <c r="D197" t="n">
-        <v>0.03718781471252441</v>
+        <v>0.1615653038024902</v>
       </c>
     </row>
     <row r="198">
@@ -3210,7 +3210,7 @@
         <v>625</v>
       </c>
       <c r="D198" t="n">
-        <v>0.03775167465209961</v>
+        <v>0.1506414413452148</v>
       </c>
     </row>
     <row r="199">
@@ -3224,7 +3224,7 @@
         <v>625</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01061248779296875</v>
+        <v>0.02726387977600098</v>
       </c>
     </row>
     <row r="200">
@@ -3238,7 +3238,7 @@
         <v>625</v>
       </c>
       <c r="D200" t="n">
-        <v>0.04090738296508789</v>
+        <v>0.1598801612854004</v>
       </c>
     </row>
     <row r="201">
@@ -3252,7 +3252,7 @@
         <v>625</v>
       </c>
       <c r="D201" t="n">
-        <v>0.04038071632385254</v>
+        <v>0.1195864677429199</v>
       </c>
     </row>
     <row r="202">
@@ -3266,7 +3266,7 @@
         <v>625</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1211323738098145</v>
+        <v>0.02316737174987793</v>
       </c>
     </row>
     <row r="203">
@@ -3280,7 +3280,7 @@
         <v>625</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0433802604675293</v>
+        <v>0.2076001167297363</v>
       </c>
     </row>
     <row r="204">
@@ -3294,7 +3294,7 @@
         <v>625</v>
       </c>
       <c r="D204" t="n">
-        <v>0.04399394989013672</v>
+        <v>0.1988577842712402</v>
       </c>
     </row>
     <row r="205">
@@ -3308,7 +3308,7 @@
         <v>625</v>
       </c>
       <c r="D205" t="n">
-        <v>0.01212644577026367</v>
+        <v>0.02447366714477539</v>
       </c>
     </row>
     <row r="206">
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="D206" t="n">
-        <v>0.05168724060058594</v>
+        <v>0.1446514129638672</v>
       </c>
     </row>
     <row r="207">
@@ -3336,7 +3336,7 @@
         <v>1000</v>
       </c>
       <c r="D207" t="n">
-        <v>0.05455422401428223</v>
+        <v>0.1438515186309814</v>
       </c>
     </row>
     <row r="208">
@@ -3350,7 +3350,7 @@
         <v>1000</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04692745208740234</v>
+        <v>0.1207530498504639</v>
       </c>
     </row>
     <row r="209">
@@ -3364,7 +3364,7 @@
         <v>1000</v>
       </c>
       <c r="D209" t="n">
-        <v>0.05365395545959473</v>
+        <v>0.1618993282318115</v>
       </c>
     </row>
     <row r="210">
@@ -3378,7 +3378,7 @@
         <v>1000</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0527651309967041</v>
+        <v>0.1582074165344238</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>1000</v>
       </c>
       <c r="D211" t="n">
-        <v>0.04715609550476074</v>
+        <v>0.1197729110717773</v>
       </c>
     </row>
     <row r="212">
@@ -3406,7 +3406,7 @@
         <v>1000</v>
       </c>
       <c r="D212" t="n">
-        <v>0.05166435241699219</v>
+        <v>0.1457674503326416</v>
       </c>
     </row>
     <row r="213">
@@ -3420,7 +3420,7 @@
         <v>1000</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0540924072265625</v>
+        <v>0.151759147644043</v>
       </c>
     </row>
     <row r="214">
@@ -3434,7 +3434,7 @@
         <v>1000</v>
       </c>
       <c r="D214" t="n">
-        <v>0.04560089111328125</v>
+        <v>0.1200535297393799</v>
       </c>
     </row>
     <row r="215">
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="D215" t="n">
-        <v>0.05350279808044434</v>
+        <v>0.3214218616485596</v>
       </c>
     </row>
     <row r="216">
@@ -3462,7 +3462,7 @@
         <v>1000</v>
       </c>
       <c r="D216" t="n">
-        <v>0.05429577827453613</v>
+        <v>0.1604328155517578</v>
       </c>
     </row>
     <row r="217">
@@ -3476,7 +3476,7 @@
         <v>1000</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0455925464630127</v>
+        <v>0.1209995746612549</v>
       </c>
     </row>
     <row r="218">
@@ -3490,7 +3490,7 @@
         <v>1000</v>
       </c>
       <c r="D218" t="n">
-        <v>0.05373024940490723</v>
+        <v>0.1402714252471924</v>
       </c>
     </row>
     <row r="219">
@@ -3504,7 +3504,7 @@
         <v>1000</v>
       </c>
       <c r="D219" t="n">
-        <v>0.05192184448242188</v>
+        <v>0.1402339935302734</v>
       </c>
     </row>
     <row r="220">
@@ -3518,7 +3518,7 @@
         <v>1000</v>
       </c>
       <c r="D220" t="n">
-        <v>0.04639768600463867</v>
+        <v>0.1174876689910889</v>
       </c>
     </row>
     <row r="221">
@@ -3532,7 +3532,7 @@
         <v>1000</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0524592399597168</v>
+        <v>0.1473720073699951</v>
       </c>
     </row>
     <row r="222">
@@ -3546,7 +3546,7 @@
         <v>1000</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05474162101745605</v>
+        <v>0.145963191986084</v>
       </c>
     </row>
     <row r="223">
@@ -3560,7 +3560,7 @@
         <v>1000</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0465400218963623</v>
+        <v>0.1249139308929443</v>
       </c>
     </row>
     <row r="224">
@@ -3574,7 +3574,7 @@
         <v>1000</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1672606468200684</v>
+        <v>0.1386222839355469</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>1000</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0526587963104248</v>
+        <v>0.1405446529388428</v>
       </c>
     </row>
     <row r="226">
@@ -3602,7 +3602,7 @@
         <v>1000</v>
       </c>
       <c r="D226" t="n">
-        <v>0.04351806640625</v>
+        <v>0.1174938678741455</v>
       </c>
     </row>
     <row r="227">
@@ -3616,7 +3616,7 @@
         <v>1000</v>
       </c>
       <c r="D227" t="n">
-        <v>0.04752564430236816</v>
+        <v>0.146003246307373</v>
       </c>
     </row>
     <row r="228">
@@ -3630,7 +3630,7 @@
         <v>1000</v>
       </c>
       <c r="D228" t="n">
-        <v>0.04849410057067871</v>
+        <v>0.1467702388763428</v>
       </c>
     </row>
     <row r="229">
@@ -3644,7 +3644,7 @@
         <v>1000</v>
       </c>
       <c r="D229" t="n">
-        <v>0.04146552085876465</v>
+        <v>0.1178967952728271</v>
       </c>
     </row>
     <row r="230">
@@ -3658,7 +3658,7 @@
         <v>1000</v>
       </c>
       <c r="D230" t="n">
-        <v>0.04962730407714844</v>
+        <v>0.2410590648651123</v>
       </c>
     </row>
     <row r="231">
@@ -3672,7 +3672,7 @@
         <v>1000</v>
       </c>
       <c r="D231" t="n">
-        <v>0.04967141151428223</v>
+        <v>0.4006273746490479</v>
       </c>
     </row>
     <row r="232">
@@ -3686,7 +3686,7 @@
         <v>1000</v>
       </c>
       <c r="D232" t="n">
-        <v>0.03364658355712891</v>
+        <v>0.1287178993225098</v>
       </c>
     </row>
     <row r="233">
@@ -3700,7 +3700,7 @@
         <v>1000</v>
       </c>
       <c r="D233" t="n">
-        <v>0.05402421951293945</v>
+        <v>0.3117339611053467</v>
       </c>
     </row>
     <row r="234">
@@ -3714,7 +3714,7 @@
         <v>1000</v>
       </c>
       <c r="D234" t="n">
-        <v>0.05117702484130859</v>
+        <v>0.2803895473480225</v>
       </c>
     </row>
     <row r="235">
@@ -3728,7 +3728,7 @@
         <v>1000</v>
       </c>
       <c r="D235" t="n">
-        <v>0.04129981994628906</v>
+        <v>0.1410403251647949</v>
       </c>
     </row>
     <row r="236">
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0485074520111084</v>
+        <v>0.3000409603118896</v>
       </c>
     </row>
     <row r="237">
@@ -3756,7 +3756,7 @@
         <v>1000</v>
       </c>
       <c r="D237" t="n">
-        <v>0.05079340934753418</v>
+        <v>0.2907991409301758</v>
       </c>
     </row>
     <row r="238">
@@ -3770,7 +3770,7 @@
         <v>1000</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03431177139282227</v>
+        <v>0.1265974044799805</v>
       </c>
     </row>
     <row r="239">
@@ -3784,7 +3784,7 @@
         <v>1000</v>
       </c>
       <c r="D239" t="n">
-        <v>0.05157279968261719</v>
+        <v>0.361814022064209</v>
       </c>
     </row>
     <row r="240">
@@ -3798,7 +3798,7 @@
         <v>1000</v>
       </c>
       <c r="D240" t="n">
-        <v>0.05248379707336426</v>
+        <v>0.399524450302124</v>
       </c>
     </row>
     <row r="241">
@@ -3812,7 +3812,7 @@
         <v>1000</v>
       </c>
       <c r="D241" t="n">
-        <v>0.03778171539306641</v>
+        <v>0.1869332790374756</v>
       </c>
     </row>
     <row r="242">
@@ -3826,7 +3826,7 @@
         <v>1000</v>
       </c>
       <c r="D242" t="n">
-        <v>0.05182480812072754</v>
+        <v>0.2522156238555908</v>
       </c>
     </row>
     <row r="243">
@@ -3840,7 +3840,7 @@
         <v>1000</v>
       </c>
       <c r="D243" t="n">
-        <v>0.05611777305603027</v>
+        <v>0.248185396194458</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>1000</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0491180419921875</v>
+        <v>0.2517526149749756</v>
       </c>
     </row>
     <row r="245">
@@ -3868,7 +3868,7 @@
         <v>1000</v>
       </c>
       <c r="D245" t="n">
-        <v>0.05228614807128906</v>
+        <v>0.163815975189209</v>
       </c>
     </row>
     <row r="246">
@@ -3882,7 +3882,7 @@
         <v>1000</v>
       </c>
       <c r="D246" t="n">
-        <v>0.1597855091094971</v>
+        <v>0.1645712852478027</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>1000</v>
       </c>
       <c r="D247" t="n">
-        <v>0.05078268051147461</v>
+        <v>0.1660366058349609</v>
       </c>
     </row>
     <row r="248">
@@ -3910,7 +3910,7 @@
         <v>1000</v>
       </c>
       <c r="D248" t="n">
-        <v>0.05263710021972656</v>
+        <v>0.348088264465332</v>
       </c>
     </row>
     <row r="249">
@@ -3924,7 +3924,7 @@
         <v>1000</v>
       </c>
       <c r="D249" t="n">
-        <v>0.05456686019897461</v>
+        <v>0.1915030479431152</v>
       </c>
     </row>
     <row r="250">
@@ -3938,7 +3938,7 @@
         <v>1000</v>
       </c>
       <c r="D250" t="n">
-        <v>0.04924511909484863</v>
+        <v>0.213510274887085</v>
       </c>
     </row>
     <row r="251">
@@ -3952,7 +3952,7 @@
         <v>1000</v>
       </c>
       <c r="D251" t="n">
-        <v>0.05452394485473633</v>
+        <v>0.2074389457702637</v>
       </c>
     </row>
     <row r="252">
@@ -3966,7 +3966,7 @@
         <v>1000</v>
       </c>
       <c r="D252" t="n">
-        <v>0.05157876014709473</v>
+        <v>0.2053022384643555</v>
       </c>
     </row>
     <row r="253">
@@ -3980,7 +3980,7 @@
         <v>1000</v>
       </c>
       <c r="D253" t="n">
-        <v>0.05388689041137695</v>
+        <v>0.2180030345916748</v>
       </c>
     </row>
     <row r="254">
@@ -3994,7 +3994,7 @@
         <v>1000</v>
       </c>
       <c r="D254" t="n">
-        <v>0.05409336090087891</v>
+        <v>0.2043547630310059</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>1000</v>
       </c>
       <c r="D255" t="n">
-        <v>0.05487561225891113</v>
+        <v>0.2354412078857422</v>
       </c>
     </row>
     <row r="256">
@@ -4022,7 +4022,7 @@
         <v>1000</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0399620532989502</v>
+        <v>0.1424107551574707</v>
       </c>
     </row>
     <row r="257">
@@ -4036,7 +4036,7 @@
         <v>1000</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0542140007019043</v>
+        <v>0.2827835083007812</v>
       </c>
     </row>
     <row r="258">
@@ -4050,7 +4050,7 @@
         <v>1000</v>
       </c>
       <c r="D258" t="n">
-        <v>0.05355620384216309</v>
+        <v>0.2813773155212402</v>
       </c>
     </row>
     <row r="259">
@@ -4064,7 +4064,7 @@
         <v>1000</v>
       </c>
       <c r="D259" t="n">
-        <v>0.04004216194152832</v>
+        <v>0.1570863723754883</v>
       </c>
     </row>
     <row r="260">
@@ -4078,7 +4078,7 @@
         <v>1000</v>
       </c>
       <c r="D260" t="n">
-        <v>0.05393886566162109</v>
+        <v>0.2421011924743652</v>
       </c>
     </row>
     <row r="261">
@@ -4092,7 +4092,7 @@
         <v>1000</v>
       </c>
       <c r="D261" t="n">
-        <v>0.05500054359436035</v>
+        <v>0.2385482788085938</v>
       </c>
     </row>
     <row r="262">
@@ -4106,7 +4106,7 @@
         <v>1000</v>
       </c>
       <c r="D262" t="n">
-        <v>0.03924679756164551</v>
+        <v>0.1737933158874512</v>
       </c>
     </row>
     <row r="263">
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="D263" t="n">
-        <v>0.05624842643737793</v>
+        <v>0.3400247097015381</v>
       </c>
     </row>
     <row r="264">
@@ -4134,7 +4134,7 @@
         <v>1000</v>
       </c>
       <c r="D264" t="n">
-        <v>0.05591297149658203</v>
+        <v>0.1670114994049072</v>
       </c>
     </row>
     <row r="265">
@@ -4148,7 +4148,7 @@
         <v>1000</v>
       </c>
       <c r="D265" t="n">
-        <v>0.03965544700622559</v>
+        <v>0.147294282913208</v>
       </c>
     </row>
     <row r="266">
@@ -4162,7 +4162,7 @@
         <v>2500</v>
       </c>
       <c r="D266" t="n">
-        <v>0.2113513946533203</v>
+        <v>0.3220133781433105</v>
       </c>
     </row>
     <row r="267">
@@ -4176,7 +4176,7 @@
         <v>2500</v>
       </c>
       <c r="D267" t="n">
-        <v>0.10508131980896</v>
+        <v>0.2705650329589844</v>
       </c>
     </row>
     <row r="268">
@@ -4190,7 +4190,7 @@
         <v>2500</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1037359237670898</v>
+        <v>0.2682955265045166</v>
       </c>
     </row>
     <row r="269">
@@ -4204,7 +4204,7 @@
         <v>2500</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1029284000396729</v>
+        <v>0.2705895900726318</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4218,7 @@
         <v>2500</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1017928123474121</v>
+        <v>0.2696070671081543</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>2500</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1027989387512207</v>
+        <v>0.4316959381103516</v>
       </c>
     </row>
     <row r="272">
@@ -4246,7 +4246,7 @@
         <v>2500</v>
       </c>
       <c r="D272" t="n">
-        <v>0.1024150848388672</v>
+        <v>0.2726380825042725</v>
       </c>
     </row>
     <row r="273">
@@ -4260,7 +4260,7 @@
         <v>2500</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1050789356231689</v>
+        <v>0.3105075359344482</v>
       </c>
     </row>
     <row r="274">
@@ -4274,7 +4274,7 @@
         <v>2500</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1019513607025146</v>
+        <v>0.2829623222351074</v>
       </c>
     </row>
     <row r="275">
@@ -4288,7 +4288,7 @@
         <v>2500</v>
       </c>
       <c r="D275" t="n">
-        <v>0.2144017219543457</v>
+        <v>0.2712299823760986</v>
       </c>
     </row>
     <row r="276">
@@ -4302,7 +4302,7 @@
         <v>2500</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1036834716796875</v>
+        <v>0.2667975425720215</v>
       </c>
     </row>
     <row r="277">
@@ -4316,7 +4316,7 @@
         <v>2500</v>
       </c>
       <c r="D277" t="n">
-        <v>0.1034016609191895</v>
+        <v>0.2962989807128906</v>
       </c>
     </row>
     <row r="278">
@@ -4330,7 +4330,7 @@
         <v>2500</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1029596328735352</v>
+        <v>0.4519245624542236</v>
       </c>
     </row>
     <row r="279">
@@ -4344,7 +4344,7 @@
         <v>2500</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1047945022583008</v>
+        <v>0.290076732635498</v>
       </c>
     </row>
     <row r="280">
@@ -4358,7 +4358,7 @@
         <v>2500</v>
       </c>
       <c r="D280" t="n">
-        <v>0.1025824546813965</v>
+        <v>0.2905244827270508</v>
       </c>
     </row>
     <row r="281">
@@ -4372,7 +4372,7 @@
         <v>2500</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1014318466186523</v>
+        <v>0.2933993339538574</v>
       </c>
     </row>
     <row r="282">
@@ -4386,7 +4386,7 @@
         <v>2500</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1051208972930908</v>
+        <v>0.290142297744751</v>
       </c>
     </row>
     <row r="283">
@@ -4400,7 +4400,7 @@
         <v>2500</v>
       </c>
       <c r="D283" t="n">
-        <v>0.106158971786499</v>
+        <v>0.3502082824707031</v>
       </c>
     </row>
     <row r="284">
@@ -4414,7 +4414,7 @@
         <v>2500</v>
       </c>
       <c r="D284" t="n">
-        <v>0.2172789573669434</v>
+        <v>0.2735838890075684</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>2500</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1026401519775391</v>
+        <v>0.4352741241455078</v>
       </c>
     </row>
     <row r="286">
@@ -4442,7 +4442,7 @@
         <v>2500</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1033048629760742</v>
+        <v>0.2886543273925781</v>
       </c>
     </row>
     <row r="287">
@@ -4456,7 +4456,7 @@
         <v>2500</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1027438640594482</v>
+        <v>0.2720847129821777</v>
       </c>
     </row>
     <row r="288">
@@ -4470,7 +4470,7 @@
         <v>2500</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1034510135650635</v>
+        <v>0.2751188278198242</v>
       </c>
     </row>
     <row r="289">
@@ -4484,7 +4484,7 @@
         <v>2500</v>
       </c>
       <c r="D289" t="n">
-        <v>0.1022436618804932</v>
+        <v>0.2850744724273682</v>
       </c>
     </row>
     <row r="290">
@@ -4498,7 +4498,7 @@
         <v>2500</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1042840480804443</v>
+        <v>0.4896225929260254</v>
       </c>
     </row>
     <row r="291">
@@ -4512,7 +4512,7 @@
         <v>2500</v>
       </c>
       <c r="D291" t="n">
-        <v>0.1047976016998291</v>
+        <v>0.649444580078125</v>
       </c>
     </row>
     <row r="292">
@@ -4526,7 +4526,7 @@
         <v>2500</v>
       </c>
       <c r="D292" t="n">
-        <v>0.1048269271850586</v>
+        <v>0.4841179847717285</v>
       </c>
     </row>
     <row r="293">
@@ -4540,7 +4540,7 @@
         <v>2500</v>
       </c>
       <c r="D293" t="n">
-        <v>0.2222282886505127</v>
+        <v>0.3217227458953857</v>
       </c>
     </row>
     <row r="294">
@@ -4554,7 +4554,7 @@
         <v>2500</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1064870357513428</v>
+        <v>0.2909109592437744</v>
       </c>
     </row>
     <row r="295">
@@ -4568,7 +4568,7 @@
         <v>2500</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1052610874176025</v>
+        <v>0.2967195510864258</v>
       </c>
     </row>
     <row r="296">
@@ -4582,7 +4582,7 @@
         <v>2500</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1081736087799072</v>
+        <v>0.7275409698486328</v>
       </c>
     </row>
     <row r="297">
@@ -4596,7 +4596,7 @@
         <v>2500</v>
       </c>
       <c r="D297" t="n">
-        <v>0.105165958404541</v>
+        <v>0.7465047836303711</v>
       </c>
     </row>
     <row r="298">
@@ -4610,7 +4610,7 @@
         <v>2500</v>
       </c>
       <c r="D298" t="n">
-        <v>0.1068251132965088</v>
+        <v>0.956350564956665</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>2500</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1052320003509521</v>
+        <v>0.3179051876068115</v>
       </c>
     </row>
     <row r="300">
@@ -4638,7 +4638,7 @@
         <v>2500</v>
       </c>
       <c r="D300" t="n">
-        <v>0.1040537357330322</v>
+        <v>0.2912497520446777</v>
       </c>
     </row>
     <row r="301">
@@ -4652,7 +4652,7 @@
         <v>2500</v>
       </c>
       <c r="D301" t="n">
-        <v>0.1038327217102051</v>
+        <v>0.2891497611999512</v>
       </c>
     </row>
     <row r="302">
@@ -4666,7 +4666,7 @@
         <v>2500</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1087546348571777</v>
+        <v>0.4469194412231445</v>
       </c>
     </row>
     <row r="303">
@@ -4680,7 +4680,7 @@
         <v>2500</v>
       </c>
       <c r="D303" t="n">
-        <v>0.2238247394561768</v>
+        <v>0.4644253253936768</v>
       </c>
     </row>
     <row r="304">
@@ -4694,7 +4694,7 @@
         <v>2500</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1086463928222656</v>
+        <v>0.6074864864349365</v>
       </c>
     </row>
     <row r="305">
@@ -4708,7 +4708,7 @@
         <v>2500</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1060812473297119</v>
+        <v>0.3372604846954346</v>
       </c>
     </row>
     <row r="306">
@@ -4722,7 +4722,7 @@
         <v>2500</v>
       </c>
       <c r="D306" t="n">
-        <v>0.10555100440979</v>
+        <v>0.2910439968109131</v>
       </c>
     </row>
     <row r="307">
@@ -4736,7 +4736,7 @@
         <v>2500</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1056859493255615</v>
+        <v>0.293893575668335</v>
       </c>
     </row>
     <row r="308">
@@ -4750,7 +4750,7 @@
         <v>2500</v>
       </c>
       <c r="D308" t="n">
-        <v>0.1088612079620361</v>
+        <v>0.396780252456665</v>
       </c>
     </row>
     <row r="309">
@@ -4764,7 +4764,7 @@
         <v>2500</v>
       </c>
       <c r="D309" t="n">
-        <v>0.1092808246612549</v>
+        <v>0.4310824871063232</v>
       </c>
     </row>
     <row r="310">
@@ -4778,7 +4778,7 @@
         <v>2500</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1085150241851807</v>
+        <v>0.4018576145172119</v>
       </c>
     </row>
     <row r="311">
@@ -4792,7 +4792,7 @@
         <v>2500</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1041529178619385</v>
+        <v>0.444537878036499</v>
       </c>
     </row>
     <row r="312">
@@ -4806,7 +4806,7 @@
         <v>2500</v>
       </c>
       <c r="D312" t="n">
-        <v>0.2207789421081543</v>
+        <v>0.2939386367797852</v>
       </c>
     </row>
     <row r="313">
@@ -4820,7 +4820,7 @@
         <v>2500</v>
       </c>
       <c r="D313" t="n">
-        <v>0.1101241111755371</v>
+        <v>0.3255231380462646</v>
       </c>
     </row>
     <row r="314">
@@ -4834,7 +4834,7 @@
         <v>2500</v>
       </c>
       <c r="D314" t="n">
-        <v>0.1132988929748535</v>
+        <v>0.4810357093811035</v>
       </c>
     </row>
     <row r="315">
@@ -4848,7 +4848,7 @@
         <v>2500</v>
       </c>
       <c r="D315" t="n">
-        <v>0.1092731952667236</v>
+        <v>0.450139045715332</v>
       </c>
     </row>
     <row r="316">
@@ -4862,7 +4862,7 @@
         <v>2500</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1109805107116699</v>
+        <v>0.5002288818359375</v>
       </c>
     </row>
     <row r="317">
@@ -4876,7 +4876,7 @@
         <v>2500</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1173405647277832</v>
+        <v>0.3269565105438232</v>
       </c>
     </row>
     <row r="318">
@@ -4890,7 +4890,7 @@
         <v>2500</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1076056957244873</v>
+        <v>0.5351688861846924</v>
       </c>
     </row>
     <row r="319">
@@ -4904,7 +4904,7 @@
         <v>2500</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1089637279510498</v>
+        <v>0.3154644966125488</v>
       </c>
     </row>
     <row r="320">
@@ -4918,7 +4918,7 @@
         <v>2500</v>
       </c>
       <c r="D320" t="n">
-        <v>0.110973596572876</v>
+        <v>0.4780552387237549</v>
       </c>
     </row>
     <row r="321">
@@ -4932,7 +4932,7 @@
         <v>2500</v>
       </c>
       <c r="D321" t="n">
-        <v>0.2253391742706299</v>
+        <v>0.4921777248382568</v>
       </c>
     </row>
     <row r="322">
@@ -4946,7 +4946,7 @@
         <v>2500</v>
       </c>
       <c r="D322" t="n">
-        <v>0.1121797561645508</v>
+        <v>0.5077428817749023</v>
       </c>
     </row>
     <row r="323">
@@ -4960,7 +4960,7 @@
         <v>2500</v>
       </c>
       <c r="D323" t="n">
-        <v>0.1127712726593018</v>
+        <v>0.3286037445068359</v>
       </c>
     </row>
     <row r="324">
@@ -4974,7 +4974,7 @@
         <v>2500</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1086776256561279</v>
+        <v>0.4737093448638916</v>
       </c>
     </row>
     <row r="325">
@@ -4988,7 +4988,7 @@
         <v>2500</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1084434986114502</v>
+        <v>0.3193600177764893</v>
       </c>
     </row>
     <row r="326">
@@ -5002,7 +5002,7 @@
         <v>12500</v>
       </c>
       <c r="D326" t="n">
-        <v>0.4707448482513428</v>
+        <v>1.523724555969238</v>
       </c>
     </row>
     <row r="327">
@@ -5016,7 +5016,7 @@
         <v>12500</v>
       </c>
       <c r="D327" t="n">
-        <v>0.5986874103546143</v>
+        <v>1.71307110786438</v>
       </c>
     </row>
     <row r="328">
@@ -5030,7 +5030,7 @@
         <v>12500</v>
       </c>
       <c r="D328" t="n">
-        <v>0.4748260974884033</v>
+        <v>1.659008264541626</v>
       </c>
     </row>
     <row r="329">
@@ -5044,7 +5044,7 @@
         <v>12500</v>
       </c>
       <c r="D329" t="n">
-        <v>0.6022965908050537</v>
+        <v>5.943518161773682</v>
       </c>
     </row>
     <row r="330">
@@ -5058,7 +5058,7 @@
         <v>12500</v>
       </c>
       <c r="D330" t="n">
-        <v>0.4807205200195312</v>
+        <v>6.284197092056274</v>
       </c>
     </row>
     <row r="331">
@@ -5072,7 +5072,7 @@
         <v>12500</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6015598773956299</v>
+        <v>6.121230602264404</v>
       </c>
     </row>
     <row r="332">
@@ -5086,7 +5086,7 @@
         <v>12500</v>
       </c>
       <c r="D332" t="n">
-        <v>0.4782044887542725</v>
+        <v>1.56944751739502</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>12500</v>
       </c>
       <c r="D333" t="n">
-        <v>0.6043219566345215</v>
+        <v>1.66031813621521</v>
       </c>
     </row>
     <row r="334">
@@ -5114,7 +5114,7 @@
         <v>12500</v>
       </c>
       <c r="D334" t="n">
-        <v>0.4750118255615234</v>
+        <v>1.653687238693237</v>
       </c>
     </row>
     <row r="335">
@@ -5128,7 +5128,7 @@
         <v>12500</v>
       </c>
       <c r="D335" t="n">
-        <v>0.6119434833526611</v>
+        <v>1.534087181091309</v>
       </c>
     </row>
     <row r="336">
@@ -5142,7 +5142,7 @@
         <v>12500</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5119197368621826</v>
+        <v>1.72203540802002</v>
       </c>
     </row>
     <row r="337">
@@ -5156,7 +5156,7 @@
         <v>12500</v>
       </c>
       <c r="D337" t="n">
-        <v>0.6697399616241455</v>
+        <v>1.76409912109375</v>
       </c>
     </row>
     <row r="338">
@@ -5170,7 +5170,7 @@
         <v>12500</v>
       </c>
       <c r="D338" t="n">
-        <v>0.524860143661499</v>
+        <v>6.031058073043823</v>
       </c>
     </row>
     <row r="339">
@@ -5184,7 +5184,7 @@
         <v>12500</v>
       </c>
       <c r="D339" t="n">
-        <v>0.6478338241577148</v>
+        <v>6.152257680892944</v>
       </c>
     </row>
     <row r="340">
@@ -5198,7 +5198,7 @@
         <v>12500</v>
       </c>
       <c r="D340" t="n">
-        <v>0.5703041553497314</v>
+        <v>6.144872903823853</v>
       </c>
     </row>
     <row r="341">
@@ -5212,7 +5212,7 @@
         <v>12500</v>
       </c>
       <c r="D341" t="n">
-        <v>0.6924855709075928</v>
+        <v>1.561033248901367</v>
       </c>
     </row>
     <row r="342">
@@ -5226,7 +5226,7 @@
         <v>12500</v>
       </c>
       <c r="D342" t="n">
-        <v>0.548539400100708</v>
+        <v>1.655975818634033</v>
       </c>
     </row>
     <row r="343">
@@ -5240,7 +5240,7 @@
         <v>12500</v>
       </c>
       <c r="D343" t="n">
-        <v>0.5489392280578613</v>
+        <v>1.71132493019104</v>
       </c>
     </row>
     <row r="344">
@@ -5254,7 +5254,7 @@
         <v>12500</v>
       </c>
       <c r="D344" t="n">
-        <v>0.6929466724395752</v>
+        <v>1.580189943313599</v>
       </c>
     </row>
     <row r="345">
@@ -5268,7 +5268,7 @@
         <v>12500</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5515010356903076</v>
+        <v>1.736289501190186</v>
       </c>
     </row>
     <row r="346">
@@ -5282,7 +5282,7 @@
         <v>12500</v>
       </c>
       <c r="D346" t="n">
-        <v>0.6741790771484375</v>
+        <v>1.745391845703125</v>
       </c>
     </row>
     <row r="347">
@@ -5296,7 +5296,7 @@
         <v>12500</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5447673797607422</v>
+        <v>1.523386001586914</v>
       </c>
     </row>
     <row r="348">
@@ -5310,7 +5310,7 @@
         <v>12500</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6888778209686279</v>
+        <v>1.664004802703857</v>
       </c>
     </row>
     <row r="349">
@@ -5324,7 +5324,7 @@
         <v>12500</v>
       </c>
       <c r="D349" t="n">
-        <v>0.4917855262756348</v>
+        <v>1.691800594329834</v>
       </c>
     </row>
     <row r="350">
@@ -5338,7 +5338,7 @@
         <v>12500</v>
       </c>
       <c r="D350" t="n">
-        <v>0.6168646812438965</v>
+        <v>2.131780385971069</v>
       </c>
     </row>
     <row r="351">
@@ -5352,7 +5352,7 @@
         <v>12500</v>
       </c>
       <c r="D351" t="n">
-        <v>0.4987590312957764</v>
+        <v>2.365543365478516</v>
       </c>
     </row>
     <row r="352">
@@ -5366,7 +5366,7 @@
         <v>12500</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6153361797332764</v>
+        <v>2.324712038040161</v>
       </c>
     </row>
     <row r="353">
@@ -5380,7 +5380,7 @@
         <v>12500</v>
       </c>
       <c r="D353" t="n">
-        <v>0.4959132671356201</v>
+        <v>1.546583890914917</v>
       </c>
     </row>
     <row r="354">
@@ -5394,7 +5394,7 @@
         <v>12500</v>
       </c>
       <c r="D354" t="n">
-        <v>0.6195247173309326</v>
+        <v>1.687715291976929</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>12500</v>
       </c>
       <c r="D355" t="n">
-        <v>0.4932277202606201</v>
+        <v>1.678192377090454</v>
       </c>
     </row>
     <row r="356">
@@ -5422,7 +5422,7 @@
         <v>12500</v>
       </c>
       <c r="D356" t="n">
-        <v>0.6284050941467285</v>
+        <v>1.530006647109985</v>
       </c>
     </row>
     <row r="357">
@@ -5436,7 +5436,7 @@
         <v>12500</v>
       </c>
       <c r="D357" t="n">
-        <v>0.5296957492828369</v>
+        <v>1.681309938430786</v>
       </c>
     </row>
     <row r="358">
@@ -5450,7 +5450,7 @@
         <v>12500</v>
       </c>
       <c r="D358" t="n">
-        <v>0.6685440540313721</v>
+        <v>1.685537338256836</v>
       </c>
     </row>
     <row r="359">
@@ -5464,7 +5464,7 @@
         <v>12500</v>
       </c>
       <c r="D359" t="n">
-        <v>0.545659065246582</v>
+        <v>2.224162340164185</v>
       </c>
     </row>
     <row r="360">
@@ -5478,7 +5478,7 @@
         <v>12500</v>
       </c>
       <c r="D360" t="n">
-        <v>0.678333044052124</v>
+        <v>2.395092964172363</v>
       </c>
     </row>
     <row r="361">
@@ -5492,7 +5492,7 @@
         <v>12500</v>
       </c>
       <c r="D361" t="n">
-        <v>0.5252170562744141</v>
+        <v>2.350661516189575</v>
       </c>
     </row>
     <row r="362">
@@ -5506,7 +5506,7 @@
         <v>12500</v>
       </c>
       <c r="D362" t="n">
-        <v>0.6654021739959717</v>
+        <v>1.524932622909546</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>12500</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5292987823486328</v>
+        <v>1.679115772247314</v>
       </c>
     </row>
     <row r="364">
@@ -5534,7 +5534,7 @@
         <v>12500</v>
       </c>
       <c r="D364" t="n">
-        <v>0.5304486751556396</v>
+        <v>1.749743700027466</v>
       </c>
     </row>
     <row r="365">
@@ -5548,7 +5548,7 @@
         <v>12500</v>
       </c>
       <c r="D365" t="n">
-        <v>0.676227331161499</v>
+        <v>4.096575260162354</v>
       </c>
     </row>
     <row r="366">
@@ -5562,7 +5562,7 @@
         <v>12500</v>
       </c>
       <c r="D366" t="n">
-        <v>0.527440071105957</v>
+        <v>4.326941013336182</v>
       </c>
     </row>
     <row r="367">
@@ -5576,7 +5576,7 @@
         <v>12500</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6660499572753906</v>
+        <v>4.337806463241577</v>
       </c>
     </row>
     <row r="368">
@@ -5590,7 +5590,7 @@
         <v>12500</v>
       </c>
       <c r="D368" t="n">
-        <v>0.5265796184539795</v>
+        <v>1.691834926605225</v>
       </c>
     </row>
     <row r="369">
@@ -5604,7 +5604,7 @@
         <v>12500</v>
       </c>
       <c r="D369" t="n">
-        <v>0.6646606922149658</v>
+        <v>1.770809650421143</v>
       </c>
     </row>
     <row r="370">
@@ -5618,7 +5618,7 @@
         <v>12500</v>
       </c>
       <c r="D370" t="n">
-        <v>0.5361785888671875</v>
+        <v>1.759659767150879</v>
       </c>
     </row>
     <row r="371">
@@ -5632,7 +5632,7 @@
         <v>12500</v>
       </c>
       <c r="D371" t="n">
-        <v>0.6537270545959473</v>
+        <v>1.722143173217773</v>
       </c>
     </row>
     <row r="372">
@@ -5646,7 +5646,7 @@
         <v>12500</v>
       </c>
       <c r="D372" t="n">
-        <v>0.499340295791626</v>
+        <v>1.56332802772522</v>
       </c>
     </row>
     <row r="373">
@@ -5660,7 +5660,7 @@
         <v>12500</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6321427822113037</v>
+        <v>1.744060277938843</v>
       </c>
     </row>
     <row r="374">
@@ -5674,7 +5674,7 @@
         <v>12500</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5186753273010254</v>
+        <v>3.792088508605957</v>
       </c>
     </row>
     <row r="375">
@@ -5688,7 +5688,7 @@
         <v>12500</v>
       </c>
       <c r="D375" t="n">
-        <v>0.6541156768798828</v>
+        <v>3.718543529510498</v>
       </c>
     </row>
     <row r="376">
@@ -5702,7 +5702,7 @@
         <v>12500</v>
       </c>
       <c r="D376" t="n">
-        <v>0.5168194770812988</v>
+        <v>3.958993196487427</v>
       </c>
     </row>
     <row r="377">
@@ -5716,7 +5716,7 @@
         <v>12500</v>
       </c>
       <c r="D377" t="n">
-        <v>0.6320221424102783</v>
+        <v>1.734596967697144</v>
       </c>
     </row>
     <row r="378">
@@ -5730,7 +5730,7 @@
         <v>12500</v>
       </c>
       <c r="D378" t="n">
-        <v>0.5059828758239746</v>
+        <v>1.725844383239746</v>
       </c>
     </row>
     <row r="379">
@@ -5744,7 +5744,7 @@
         <v>12500</v>
       </c>
       <c r="D379" t="n">
-        <v>0.6364889144897461</v>
+        <v>1.735975027084351</v>
       </c>
     </row>
     <row r="380">
@@ -5758,7 +5758,7 @@
         <v>12500</v>
       </c>
       <c r="D380" t="n">
-        <v>0.5202052593231201</v>
+        <v>1.711555242538452</v>
       </c>
     </row>
     <row r="381">
@@ -5772,7 +5772,7 @@
         <v>12500</v>
       </c>
       <c r="D381" t="n">
-        <v>0.6387450695037842</v>
+        <v>1.586673736572266</v>
       </c>
     </row>
     <row r="382">
@@ -5786,7 +5786,7 @@
         <v>12500</v>
       </c>
       <c r="D382" t="n">
-        <v>0.492992639541626</v>
+        <v>1.689059257507324</v>
       </c>
     </row>
     <row r="383">
@@ -5800,7 +5800,7 @@
         <v>12500</v>
       </c>
       <c r="D383" t="n">
-        <v>0.6345696449279785</v>
+        <v>2.828482151031494</v>
       </c>
     </row>
     <row r="384">
@@ -5814,7 +5814,7 @@
         <v>12500</v>
       </c>
       <c r="D384" t="n">
-        <v>0.5476105213165283</v>
+        <v>2.424266815185547</v>
       </c>
     </row>
     <row r="385">
@@ -5828,7 +5828,7 @@
         <v>12500</v>
       </c>
       <c r="D385" t="n">
-        <v>0.5069491863250732</v>
+        <v>2.5750732421875</v>
       </c>
     </row>
     <row r="386">
@@ -5842,7 +5842,7 @@
         <v>12500</v>
       </c>
       <c r="D386" t="n">
-        <v>0.6391503810882568</v>
+        <v>1.861470222473145</v>
       </c>
     </row>
     <row r="387">
@@ -5856,7 +5856,7 @@
         <v>12500</v>
       </c>
       <c r="D387" t="n">
-        <v>0.5049378871917725</v>
+        <v>1.812962770462036</v>
       </c>
     </row>
     <row r="388">
@@ -5870,7 +5870,7 @@
         <v>12500</v>
       </c>
       <c r="D388" t="n">
-        <v>0.6439263820648193</v>
+        <v>1.776051998138428</v>
       </c>
     </row>
     <row r="389">
@@ -5884,7 +5884,7 @@
         <v>12500</v>
       </c>
       <c r="D389" t="n">
-        <v>0.5031352043151855</v>
+        <v>2.003036022186279</v>
       </c>
     </row>
     <row r="390">
@@ -5898,7 +5898,7 @@
         <v>12500</v>
       </c>
       <c r="D390" t="n">
-        <v>0.6614603996276855</v>
+        <v>1.837739229202271</v>
       </c>
     </row>
     <row r="391">
@@ -5912,7 +5912,7 @@
         <v>12500</v>
       </c>
       <c r="D391" t="n">
-        <v>0.5070259571075439</v>
+        <v>1.926221132278442</v>
       </c>
     </row>
     <row r="392">
@@ -5926,7 +5926,7 @@
         <v>12500</v>
       </c>
       <c r="D392" t="n">
-        <v>0.6585812568664551</v>
+        <v>3.137631893157959</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>12500</v>
       </c>
       <c r="D393" t="n">
-        <v>0.5423209667205811</v>
+        <v>2.854403495788574</v>
       </c>
     </row>
     <row r="394">
@@ -5954,7 +5954,7 @@
         <v>12500</v>
       </c>
       <c r="D394" t="n">
-        <v>0.665557861328125</v>
+        <v>3.299196243286133</v>
       </c>
     </row>
     <row r="395">
@@ -5968,7 +5968,7 @@
         <v>12500</v>
       </c>
       <c r="D395" t="n">
-        <v>0.5052402019500732</v>
+        <v>2.020749807357788</v>
       </c>
     </row>
     <row r="396">
@@ -5982,7 +5982,7 @@
         <v>12500</v>
       </c>
       <c r="D396" t="n">
-        <v>0.6522226333618164</v>
+        <v>1.849103927612305</v>
       </c>
     </row>
     <row r="397">
@@ -5996,7 +5996,7 @@
         <v>12500</v>
       </c>
       <c r="D397" t="n">
-        <v>0.5253911018371582</v>
+        <v>2.10814356803894</v>
       </c>
     </row>
     <row r="398">
@@ -6010,7 +6010,7 @@
         <v>12500</v>
       </c>
       <c r="D398" t="n">
-        <v>0.6598527431488037</v>
+        <v>2.013542175292969</v>
       </c>
     </row>
     <row r="399">
@@ -6024,7 +6024,7 @@
         <v>12500</v>
       </c>
       <c r="D399" t="n">
-        <v>0.5312724113464355</v>
+        <v>1.907696008682251</v>
       </c>
     </row>
     <row r="400">
@@ -6038,7 +6038,7 @@
         <v>12500</v>
       </c>
       <c r="D400" t="n">
-        <v>0.6675601005554199</v>
+        <v>1.819144725799561</v>
       </c>
     </row>
     <row r="401">
@@ -6052,7 +6052,7 @@
         <v>12500</v>
       </c>
       <c r="D401" t="n">
-        <v>0.5255486965179443</v>
+        <v>1.860668420791626</v>
       </c>
     </row>
     <row r="402">
@@ -6066,7 +6066,7 @@
         <v>12500</v>
       </c>
       <c r="D402" t="n">
-        <v>0.6631095409393311</v>
+        <v>1.677219867706299</v>
       </c>
     </row>
     <row r="403">
@@ -6080,7 +6080,7 @@
         <v>12500</v>
       </c>
       <c r="D403" t="n">
-        <v>0.5496327877044678</v>
+        <v>2.076209306716919</v>
       </c>
     </row>
     <row r="404">
@@ -6094,7 +6094,7 @@
         <v>12500</v>
       </c>
       <c r="D404" t="n">
-        <v>0.6704971790313721</v>
+        <v>2.081652879714966</v>
       </c>
     </row>
     <row r="405">
@@ -6108,7 +6108,7 @@
         <v>12500</v>
       </c>
       <c r="D405" t="n">
-        <v>0.5397531986236572</v>
+        <v>1.597336053848267</v>
       </c>
     </row>
     <row r="406">
@@ -6122,7 +6122,7 @@
         <v>12500</v>
       </c>
       <c r="D406" t="n">
-        <v>0.6619265079498291</v>
+        <v>1.831528425216675</v>
       </c>
     </row>
     <row r="407">
@@ -6136,7 +6136,7 @@
         <v>12500</v>
       </c>
       <c r="D407" t="n">
-        <v>0.540942907333374</v>
+        <v>1.801007747650146</v>
       </c>
     </row>
     <row r="408">
@@ -6150,7 +6150,7 @@
         <v>12500</v>
       </c>
       <c r="D408" t="n">
-        <v>0.5255045890808105</v>
+        <v>1.571886539459229</v>
       </c>
     </row>
     <row r="409">
@@ -6164,7 +6164,7 @@
         <v>12500</v>
       </c>
       <c r="D409" t="n">
-        <v>0.6493208408355713</v>
+        <v>1.78471565246582</v>
       </c>
     </row>
     <row r="410">
@@ -6178,7 +6178,7 @@
         <v>12500</v>
       </c>
       <c r="D410" t="n">
-        <v>0.527557373046875</v>
+        <v>1.88486647605896</v>
       </c>
     </row>
     <row r="411">
@@ -6192,7 +6192,7 @@
         <v>12500</v>
       </c>
       <c r="D411" t="n">
-        <v>0.6603844165802002</v>
+        <v>1.724016189575195</v>
       </c>
     </row>
     <row r="412">
@@ -6206,7 +6206,7 @@
         <v>12500</v>
       </c>
       <c r="D412" t="n">
-        <v>0.5313119888305664</v>
+        <v>1.927117586135864</v>
       </c>
     </row>
     <row r="413">
@@ -6220,7 +6220,7 @@
         <v>12500</v>
       </c>
       <c r="D413" t="n">
-        <v>0.6885879039764404</v>
+        <v>1.805337429046631</v>
       </c>
     </row>
     <row r="414">
@@ -6234,7 +6234,7 @@
         <v>12500</v>
       </c>
       <c r="D414" t="n">
-        <v>0.5422687530517578</v>
+        <v>1.601941585540771</v>
       </c>
     </row>
     <row r="415">
@@ -6248,7 +6248,7 @@
         <v>12500</v>
       </c>
       <c r="D415" t="n">
-        <v>0.684481143951416</v>
+        <v>1.80125093460083</v>
       </c>
     </row>
   </sheetData>
